--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 30 - Wort Copper 1/99RP276_S30_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 30 - Wort Copper 1/99RP276_S30_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 30 - Wort Copper 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B49064-68D2-654E-BD00-8527459CD191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB1ABAF-C2F0-3E47-A4EF-D5B42BB00FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="25780" windowHeight="21140" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="408">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -1334,6 +1334,84 @@
   <si>
     <t>9RP260.2346:1014VCM</t>
   </si>
+  <si>
+    <t>20: MES: Time casting</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>043: Volume at Start Boiling</t>
+  </si>
+  <si>
+    <t>044: Volume at End casting</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>045: Extract loses</t>
+  </si>
+  <si>
+    <t>046: °P measured at Boiling start</t>
+  </si>
+  <si>
+    <t>047: Final extract</t>
+  </si>
+  <si>
+    <t>048: Yield at end of Boiling</t>
+  </si>
+  <si>
+    <t>049: Theoritical Energy setpoint</t>
+  </si>
+  <si>
+    <t>050: Final orig Gravity mass per vol %</t>
+  </si>
+  <si>
+    <t>051: Malt Outtake Total Amount</t>
+  </si>
+  <si>
+    <t>057: Volume cold wort</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Need to be visible in procedure</t>
+  </si>
+  <si>
+    <t>99RP276.2865:1556VCM</t>
+  </si>
+  <si>
+    <t>Thermal energy complete</t>
+  </si>
+  <si>
+    <t>307 - Reboiling</t>
+  </si>
 </sst>
 </file>
 
@@ -1404,7 +1482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,6 +1534,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,7 +1777,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4935,14 +5028,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Option: Massafra -   | Bergamo - 009: 003: Use steam</v>
+        <v>-- Option: Massafra -  009: 003: Use steam | Bergamo - 009: 003: Use steam</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Option Comparison'!$K$3="NULL","",IF(ISBLANK('01 Option Comparison'!$K$3),"",'01 Option Comparison'!$K$3))</f>
-        <v/>
+        <v>009: 003: Use steam</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -7466,14 +7559,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -  Delay time after high foam | Bergamo - 15: MES: Time casting</v>
+        <v>-- Function: Massafra -  20: MES: Time casting | Bergamo - 15: MES: Time casting</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v>Delay time after high foam</v>
+        <v>20: MES: Time casting</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -7523,7 +7616,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742416SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -7533,20 +7626,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$4="NULL","",IF(ISBLANK('01 Function Comparison'!$L$4),"",'01 Function Comparison'!$L$4))</f>
-        <v>99RP276.1073742416SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Function: Massafra -   | Bergamo - 22: Total SHW</v>
+        <v>-- Function: Massafra -  22: Total SHW | Bergamo - 22: Total SHW</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v/>
+        <v>22: Total SHW</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -7612,14 +7705,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Function: Massafra -   | Bergamo - 23: Total energy</v>
+        <v>-- Function: Massafra -  23: Total energy | Bergamo - 23: Total energy</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v/>
+        <v>23: Total energy</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -7685,14 +7778,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time start Pump | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B22" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$7="NULL","",IF(ISBLANK('01 Function Comparison'!$K$7),"",'01 Function Comparison'!$K$7))</f>
-        <v>Delay time start Pump</v>
+        <v/>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -7742,7 +7835,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073741920SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -7752,20 +7845,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$7="NULL","",IF(ISBLANK('01 Function Comparison'!$L$7),"",'01 Function Comparison'!$L$7))</f>
-        <v>99RP276.1073741920SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Fan time increase/decrease speed | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$8="NULL","",IF(ISBLANK('01 Function Comparison'!$K$8),"",'01 Function Comparison'!$K$8))</f>
-        <v>Fan time increase/decrease speed</v>
+        <v/>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -7815,7 +7908,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742201SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -7825,20 +7918,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$8="NULL","",IF(ISBLANK('01 Function Comparison'!$L$8),"",'01 Function Comparison'!$L$8))</f>
-        <v>99RP276.1073742201SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time Foam dedected | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$9="NULL","",IF(ISBLANK('01 Function Comparison'!$K$9),"",'01 Function Comparison'!$K$9))</f>
-        <v>Delay time Foam dedected</v>
+        <v/>
       </c>
       <c r="D32" s="25" t="s">
         <v>25</v>
@@ -7888,7 +7981,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742202SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -7898,20 +7991,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$9="NULL","",IF(ISBLANK('01 Function Comparison'!$L$9),"",'01 Function Comparison'!$L$9))</f>
-        <v>99RP276.1073742202SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time Start Hop Pellets Aroma | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B37" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$10="NULL","",IF(ISBLANK('01 Function Comparison'!$K$10),"",'01 Function Comparison'!$K$10))</f>
-        <v>Delay time Start Hop Pellets Aroma</v>
+        <v/>
       </c>
       <c r="D37" s="25" t="s">
         <v>25</v>
@@ -7961,7 +8054,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742203SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -7971,20 +8064,20 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$10="NULL","",IF(ISBLANK('01 Function Comparison'!$L$10),"",'01 Function Comparison'!$L$10))</f>
-        <v>99RP276.1073742203SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Time dosing acid | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B42" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$11="NULL","",IF(ISBLANK('01 Function Comparison'!$K$11),"",'01 Function Comparison'!$K$11))</f>
-        <v>Time dosing acid</v>
+        <v/>
       </c>
       <c r="D42" s="25" t="s">
         <v>25</v>
@@ -8034,7 +8127,7 @@
     <row r="46" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="str">
         <f>CONCATENATE(D46,"N'",F46,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742204SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="30"/>
@@ -8044,20 +8137,20 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$11="NULL","",IF(ISBLANK('01 Function Comparison'!$L$11),"",'01 Function Comparison'!$L$11))</f>
-        <v>99RP276.1073742204SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Level empty | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B47" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$12="NULL","",IF(ISBLANK('01 Function Comparison'!$K$12),"",'01 Function Comparison'!$K$12))</f>
-        <v>Level empty</v>
+        <v/>
       </c>
       <c r="D47" s="25" t="s">
         <v>25</v>
@@ -8107,7 +8200,7 @@
     <row r="51" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="str">
         <f>CONCATENATE(D51,"N'",F51,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742205SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="30"/>
@@ -8117,20 +8210,20 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$12="NULL","",IF(ISBLANK('01 Function Comparison'!$L$12),"",'01 Function Comparison'!$L$12))</f>
-        <v>99RP276.1073742205SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Temp Start Hop Dosing IKE | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B52" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$13="NULL","",IF(ISBLANK('01 Function Comparison'!$K$13),"",'01 Function Comparison'!$K$13))</f>
-        <v>Temp Start Hop Dosing IKE</v>
+        <v/>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -8180,7 +8273,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742208SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -8190,20 +8283,20 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$13="NULL","",IF(ISBLANK('01 Function Comparison'!$L$13),"",'01 Function Comparison'!$L$13))</f>
-        <v>99RP276.1073742208SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Temp Start Hop Pellets Preparation | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B57" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$14="NULL","",IF(ISBLANK('01 Function Comparison'!$K$14),"",'01 Function Comparison'!$K$14))</f>
-        <v>Temp Start Hop Pellets Preparation</v>
+        <v/>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -8253,7 +8346,7 @@
     <row r="61" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="str">
         <f>CONCATENATE(D61,"N'",F61,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742212SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30"/>
@@ -8263,20 +8356,20 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$14="NULL","",IF(ISBLANK('01 Function Comparison'!$L$14),"",'01 Function Comparison'!$L$14))</f>
-        <v>99RP276.1073742212SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Temp Start Pellets Dosing | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B62" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$15="NULL","",IF(ISBLANK('01 Function Comparison'!$K$15),"",'01 Function Comparison'!$K$15))</f>
-        <v>Temp Start Pellets Dosing</v>
+        <v/>
       </c>
       <c r="D62" s="25" t="s">
         <v>25</v>
@@ -8326,7 +8419,7 @@
     <row r="66" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="str">
         <f>CONCATENATE(D66,"N'",F66,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742213SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="30"/>
@@ -8336,20 +8429,20 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$15="NULL","",IF(ISBLANK('01 Function Comparison'!$L$15),"",'01 Function Comparison'!$L$15))</f>
-        <v>99RP276.1073742213SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Temp Start Hop Extract Dosing | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B67" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$16="NULL","",IF(ISBLANK('01 Function Comparison'!$K$16),"",'01 Function Comparison'!$K$16))</f>
-        <v>Temp Start Hop Extract Dosing</v>
+        <v/>
       </c>
       <c r="D67" s="25" t="s">
         <v>25</v>
@@ -8399,7 +8492,7 @@
     <row r="71" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="str">
         <f>CONCATENATE(D71,"N'",F71,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742214SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="30"/>
@@ -8409,20 +8502,20 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$16="NULL","",IF(ISBLANK('01 Function Comparison'!$L$16),"",'01 Function Comparison'!$L$16))</f>
-        <v>99RP276.1073742214SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Temp Start CaCl2 Dosing | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B72" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$17="NULL","",IF(ISBLANK('01 Function Comparison'!$K$17),"",'01 Function Comparison'!$K$17))</f>
-        <v>Temp Start CaCl2 Dosing</v>
+        <v/>
       </c>
       <c r="D72" s="25" t="s">
         <v>25</v>
@@ -8472,7 +8565,7 @@
     <row r="76" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="str">
         <f>CONCATENATE(D76,"N'",F76,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742215SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="30"/>
@@ -8482,20 +8575,20 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$17="NULL","",IF(ISBLANK('01 Function Comparison'!$L$17),"",'01 Function Comparison'!$L$17))</f>
-        <v>99RP276.1073742215SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="str">
         <f>CONCATENATE(B77,C77,D77,E77)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B77" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C77" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$18="NULL","",IF(ISBLANK('01 Function Comparison'!$K$18),"",'01 Function Comparison'!$K$18))</f>
-        <v>Delay time PID</v>
+        <v/>
       </c>
       <c r="D77" s="25" t="s">
         <v>25</v>
@@ -8545,7 +8638,7 @@
     <row r="81" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="str">
         <f>CONCATENATE(D81,"N'",F81,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742219SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="30"/>
@@ -8555,20 +8648,20 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$18="NULL","",IF(ISBLANK('01 Function Comparison'!$L$18),"",'01 Function Comparison'!$L$18))</f>
-        <v>99RP276.1073742219SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="str">
         <f>CONCATENATE(B82,C82,D82,E82)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time close Dearation valve | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B82" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$19="NULL","",IF(ISBLANK('01 Function Comparison'!$K$19),"",'01 Function Comparison'!$K$19))</f>
-        <v>Delay time close Dearation valve</v>
+        <v/>
       </c>
       <c r="D82" s="25" t="s">
         <v>25</v>
@@ -8618,7 +8711,7 @@
     <row r="86" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="str">
         <f>CONCATENATE(D86,"N'",F86,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742418SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="30"/>
@@ -8628,20 +8721,20 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$19="NULL","",IF(ISBLANK('01 Function Comparison'!$L$19),"",'01 Function Comparison'!$L$19))</f>
-        <v>99RP276.1073742418SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="str">
         <f>CONCATENATE(B87,C87,D87,E87)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Flushing time density unit | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B87" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$20="NULL","",IF(ISBLANK('01 Function Comparison'!$K$20),"",'01 Function Comparison'!$K$20))</f>
-        <v>Flushing time density unit</v>
+        <v/>
       </c>
       <c r="D87" s="25" t="s">
         <v>25</v>
@@ -8691,7 +8784,7 @@
     <row r="91" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="str">
         <f>CONCATENATE(D91,"N'",F91,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742420SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="30"/>
@@ -8701,20 +8794,20 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$20="NULL","",IF(ISBLANK('01 Function Comparison'!$L$20),"",'01 Function Comparison'!$L$20))</f>
-        <v>99RP276.1073742420SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="str">
         <f>CONCATENATE(B92,C92,D92,E92)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Check time Sealing flow | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B92" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$21="NULL","",IF(ISBLANK('01 Function Comparison'!$K$21),"",'01 Function Comparison'!$K$21))</f>
-        <v>Check time Sealing flow</v>
+        <v/>
       </c>
       <c r="D92" s="25" t="s">
         <v>25</v>
@@ -8764,7 +8857,7 @@
     <row r="96" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="str">
         <f>CONCATENATE(D96,"N'",F96,"'")</f>
-        <v>WHERE _Name = N'99RP276.1073742383SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="30"/>
@@ -8774,7 +8867,7 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$21="NULL","",IF(ISBLANK('01 Function Comparison'!$L$21),"",'01 Function Comparison'!$L$21))</f>
-        <v>99RP276.1073742383SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -10581,14 +10674,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Boiling ( Density )</v>
+        <v>-- Operation: Massafra - 304 - Boiling ( Density ) | Bergamo - Boiling ( Density )</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$13="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$13),"",CONCATENATE('01 Operation Comparison'!$N$13," ( ",'01 Operation Comparison'!$O$13," )")))</f>
-        <v/>
+        <v>304 - Boiling ( Density )</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -10638,7 +10731,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'Need to be visible in procedure'</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -10648,20 +10741,20 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$13="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$13),"",'01 Operation Comparison'!$P$13))</f>
-        <v/>
+        <v>Need to be visible in procedure</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Operation: Massafra - 304 - Boiling ( Minimum Temperature fan control ) | Bergamo - Boiling ( Evapouration Factor )</v>
+        <v>-- Operation: Massafra -  | Bergamo - Boiling ( Evapouration Factor )</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$14="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$14),"",CONCATENATE('01 Operation Comparison'!$N$14," ( ",'01 Operation Comparison'!$O$14," )")))</f>
-        <v>304 - Boiling ( Minimum Temperature fan control )</v>
+        <v/>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -10711,7 +10804,7 @@
     <row r="61" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="str">
         <f>CONCATENATE(D61,"N'",F61,"'")</f>
-        <v>WHERE _Name = N'99RP276.2865:1552VCM'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30"/>
@@ -10721,20 +10814,20 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$14="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$14),"",'01 Operation Comparison'!$P$14))</f>
-        <v>99RP276.2865:1552VCM</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Boiling ( Energy )</v>
+        <v>-- Operation: Massafra - 304 - Boiling ( Thermal energy complete ) | Bergamo - Boiling ( Energy )</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$15="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$15),"",CONCATENATE('01 Operation Comparison'!$N$15," ( ",'01 Operation Comparison'!$O$15," )")))</f>
-        <v/>
+        <v>304 - Boiling ( Thermal energy complete )</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>25</v>
@@ -10784,7 +10877,7 @@
     <row r="66" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="str">
         <f>CONCATENATE(D66,"N'",F66,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP276.2865:1556VCM'</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="30"/>
@@ -10794,7 +10887,7 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$15="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$15),"",'01 Operation Comparison'!$P$15))</f>
-        <v/>
+        <v>99RP276.2865:1556VCM</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -11676,14 +11769,14 @@
     <row r="127" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="str">
         <f>CONCATENATE(B127,C127,D127,E127)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Reboiling ( Density )</v>
+        <v>-- Operation: Massafra - 307 - Reboiling ( Density ) | Bergamo - Reboiling ( Density )</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C127" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$28="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$28),"",CONCATENATE('01 Operation Comparison'!$N$28," ( ",'01 Operation Comparison'!$O$28," )")))</f>
-        <v/>
+        <v>307 - Reboiling ( Density )</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>25</v>
@@ -11733,7 +11826,7 @@
     <row r="131" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="str">
         <f>CONCATENATE(D131,"N'",F131,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'Need to be visible in procedure'</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="30"/>
@@ -11743,7 +11836,7 @@
       <c r="E131" s="36"/>
       <c r="F131" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$28="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$28),"",'01 Operation Comparison'!$P$28))</f>
-        <v/>
+        <v>Need to be visible in procedure</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -12280,10 +12373,13 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P9"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -15651,8 +15747,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15665,7 +15761,7 @@
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="46" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -15675,28 +15771,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="N1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -15771,14 +15867,11 @@
       <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
+      <c r="J3" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>384</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
@@ -15822,14 +15915,11 @@
       <c r="I4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
+      <c r="J4" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>385</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Value Source'!H2</f>
@@ -15873,14 +15963,11 @@
       <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="2">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>50</v>
+      <c r="J5" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>393</v>
       </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
@@ -15924,14 +16011,11 @@
       <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="2">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>57</v>
+      <c r="J6" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>394</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
@@ -15975,14 +16059,11 @@
       <c r="I7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="2">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>64</v>
+      <c r="J7" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>395</v>
       </c>
       <c r="N7" s="11">
         <f>'00 Value Source'!H5</f>
@@ -16026,14 +16107,11 @@
       <c r="I8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="2">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>71</v>
+      <c r="J8" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>396</v>
       </c>
       <c r="N8" s="11">
         <f>'00 Value Source'!H6</f>
@@ -16077,14 +16155,11 @@
       <c r="I9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="2">
-        <v>38</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>78</v>
+      <c r="J9" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>397</v>
       </c>
       <c r="N9" s="11">
         <f>'00 Value Source'!H7</f>
@@ -16128,14 +16203,11 @@
       <c r="I10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="2">
-        <v>40</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>84</v>
+      <c r="J10" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>398</v>
       </c>
       <c r="N10" s="11">
         <f>'00 Value Source'!H8</f>
@@ -16179,14 +16251,11 @@
       <c r="I11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="2">
-        <v>41</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>89</v>
+      <c r="J11" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>399</v>
       </c>
       <c r="N11" s="11">
         <f>'00 Value Source'!H9</f>
@@ -16230,14 +16299,11 @@
       <c r="I12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>3</v>
+      <c r="J12" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>400</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -16281,14 +16347,11 @@
       <c r="I13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>3</v>
+      <c r="J13" s="43">
+        <v>58</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
@@ -16332,14 +16395,11 @@
       <c r="I14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>3</v>
+      <c r="J14" s="43">
+        <v>59</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="N14" s="11" t="str">
         <f>'00 Value Source'!H12</f>
@@ -16383,14 +16443,11 @@
       <c r="I15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>3</v>
+      <c r="J15" s="43">
+        <v>60</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="N15" s="11" t="str">
         <f>'00 Value Source'!H13</f>
@@ -16434,14 +16491,11 @@
       <c r="I16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>3</v>
+      <c r="J16" s="43">
+        <v>61</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>110</v>
       </c>
       <c r="N16" s="11" t="str">
         <f>'00 Value Source'!H14</f>
@@ -16473,15 +16527,6 @@
         <f>'00 Value Source'!P15</f>
         <v>NULL</v>
       </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="N17" s="11">
         <f>'00 Value Source'!H15</f>
         <v>1</v>
@@ -16512,15 +16557,6 @@
         <f>'00 Value Source'!P16</f>
         <v>NULL</v>
       </c>
-      <c r="J18" s="2">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="N18" s="11">
         <f>'00 Value Source'!H16</f>
         <v>4</v>
@@ -16551,15 +16587,6 @@
         <f>'00 Value Source'!P17</f>
         <v>NULL</v>
       </c>
-      <c r="J19" s="2">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="N19" s="11">
         <f>'00 Value Source'!H17</f>
         <v>5</v>
@@ -16590,15 +16617,6 @@
         <f>'00 Value Source'!P18</f>
         <v>NULL</v>
       </c>
-      <c r="J20" s="2">
-        <v>6</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="N20" s="11">
         <f>'00 Value Source'!H18</f>
         <v>6</v>
@@ -16629,15 +16647,6 @@
         <f>'00 Value Source'!P19</f>
         <v>NULL</v>
       </c>
-      <c r="J21" s="2">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="N21" s="11">
         <f>'00 Value Source'!H19</f>
         <v>7</v>
@@ -16668,15 +16677,6 @@
         <f>'00 Value Source'!P20</f>
         <v>NULL</v>
       </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="N22" s="11">
         <f>'00 Value Source'!H20</f>
         <v>8</v>
@@ -16707,15 +16707,6 @@
         <f>'00 Value Source'!P21</f>
         <v>NULL</v>
       </c>
-      <c r="J23" s="2">
-        <v>9</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="N23" s="11">
         <f>'00 Value Source'!H21</f>
         <v>9</v>
@@ -16746,15 +16737,6 @@
         <f>'00 Value Source'!P22</f>
         <v>NULL</v>
       </c>
-      <c r="J24" s="2">
-        <v>10</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="N24" s="11">
         <f>'00 Value Source'!H22</f>
         <v>10</v>
@@ -16785,15 +16767,6 @@
         <f>'00 Value Source'!P23</f>
         <v>NULL</v>
       </c>
-      <c r="J25" s="2">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="N25" s="11">
         <f>'00 Value Source'!H23</f>
         <v>11</v>
@@ -16824,15 +16797,6 @@
         <f>'00 Value Source'!P24</f>
         <v>NULL</v>
       </c>
-      <c r="J26" s="2">
-        <v>12</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="N26" s="11">
         <f>'00 Value Source'!H24</f>
         <v>12</v>
@@ -16863,15 +16827,6 @@
         <f>'00 Value Source'!P25</f>
         <v>NULL</v>
       </c>
-      <c r="J27" s="2">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="N27" s="11">
         <f>'00 Value Source'!H25</f>
         <v>15</v>
@@ -16902,15 +16857,6 @@
         <f>'00 Value Source'!P26</f>
         <v>NULL</v>
       </c>
-      <c r="J28" s="2">
-        <v>16</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="N28" s="11">
         <f>'00 Value Source'!H26</f>
         <v>16</v>
@@ -16941,15 +16887,6 @@
         <f>'00 Value Source'!P27</f>
         <v>NULL</v>
       </c>
-      <c r="J29" s="2">
-        <v>17</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="N29" s="11">
         <f>'00 Value Source'!H27</f>
         <v>17</v>
@@ -16980,15 +16917,6 @@
         <f>'00 Value Source'!P28</f>
         <v>NULL</v>
       </c>
-      <c r="J30" s="2">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N30" s="11">
         <f>'00 Value Source'!H28</f>
         <v>18</v>
@@ -17019,15 +16947,6 @@
         <f>'00 Value Source'!P29</f>
         <v>NULL</v>
       </c>
-      <c r="J31" s="2">
-        <v>21</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="N31" s="11">
         <f>'00 Value Source'!H29</f>
         <v>21</v>
@@ -17058,15 +16977,6 @@
         <f>'00 Value Source'!P30</f>
         <v>NULL</v>
       </c>
-      <c r="J32" s="2">
-        <v>22</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="N32" s="11">
         <f>'00 Value Source'!H30</f>
         <v>22</v>
@@ -17097,15 +17007,6 @@
         <f>'00 Value Source'!P31</f>
         <v>NULL</v>
       </c>
-      <c r="J33" s="2">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="N33" s="11">
         <f>'00 Value Source'!H31</f>
         <v>23</v>
@@ -17136,15 +17037,6 @@
         <f>'00 Value Source'!P32</f>
         <v>NULL</v>
       </c>
-      <c r="J34" s="2">
-        <v>24</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="N34" s="11">
         <f>'00 Value Source'!H32</f>
         <v>24</v>
@@ -17175,15 +17067,6 @@
         <f>'00 Value Source'!P33</f>
         <v>NULL</v>
       </c>
-      <c r="J35" s="2">
-        <v>25</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="N35" s="11">
         <f>'00 Value Source'!H33</f>
         <v>25</v>
@@ -17214,15 +17097,6 @@
         <f>'00 Value Source'!P34</f>
         <v>NULL</v>
       </c>
-      <c r="J36" s="2">
-        <v>26</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="N36" s="11">
         <f>'00 Value Source'!H34</f>
         <v>26</v>
@@ -17253,15 +17127,6 @@
         <f>'00 Value Source'!P35</f>
         <v>NULL</v>
       </c>
-      <c r="J37" s="2">
-        <v>27</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="N37" s="11">
         <f>'00 Value Source'!H35</f>
         <v>27</v>
@@ -17292,15 +17157,6 @@
         <f>'00 Value Source'!P36</f>
         <v>NULL</v>
       </c>
-      <c r="J38" s="2">
-        <v>28</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="N38" s="11">
         <f>'00 Value Source'!H36</f>
         <v>28</v>
@@ -17331,15 +17187,6 @@
         <f>'00 Value Source'!P37</f>
         <v>NULL</v>
       </c>
-      <c r="J39" s="2">
-        <v>29</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="N39" s="11">
         <f>'00 Value Source'!H37</f>
         <v>29</v>
@@ -17370,15 +17217,6 @@
         <f>'00 Value Source'!P38</f>
         <v>NULL</v>
       </c>
-      <c r="J40" s="2">
-        <v>30</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="N40" s="11">
         <f>'00 Value Source'!H38</f>
         <v>30</v>
@@ -17409,15 +17247,6 @@
         <f>'00 Value Source'!P39</f>
         <v>NULL</v>
       </c>
-      <c r="J41" s="2">
-        <v>35</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="N41" s="11">
         <f>'00 Value Source'!H39</f>
         <v>35</v>
@@ -17448,15 +17277,6 @@
         <f>'00 Value Source'!P40</f>
         <v>NULL</v>
       </c>
-      <c r="J42" s="2">
-        <v>39</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="N42" s="11">
         <f>'00 Value Source'!H40</f>
         <v>39</v>
@@ -17486,15 +17306,6 @@
       <c r="D43" s="13" t="str">
         <f>'00 Value Source'!P41</f>
         <v>NULL</v>
-      </c>
-      <c r="J43" s="2">
-        <v>42</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="N43" s="11">
         <f>'00 Value Source'!H41</f>
@@ -22019,8 +21830,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22043,28 +21854,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="N1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -22139,7 +21950,9 @@
       <c r="I3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="44" t="s">
+        <v>193</v>
+      </c>
       <c r="N3" s="11" t="str">
         <f>'00 Option Source'!H1</f>
         <v>NULL</v>
@@ -28355,8 +28168,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28379,28 +28192,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="N1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -28526,14 +28339,11 @@
       <c r="I4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J4" s="2">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>224</v>
+      <c r="J4" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>382</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
@@ -28577,14 +28387,8 @@
       <c r="I5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>3</v>
+      <c r="K5" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="N5" s="11" t="str">
         <f>'00 Function Source'!H3</f>
@@ -28628,14 +28432,8 @@
       <c r="I6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>3</v>
+      <c r="K6" s="44" t="s">
+        <v>234</v>
       </c>
       <c r="N6" s="11" t="str">
         <f>'00 Function Source'!H4</f>
@@ -28667,15 +28465,6 @@
         <f>'00 Function Source'!P5</f>
         <v>NULL</v>
       </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="N7" s="11">
         <f>'00 Function Source'!H5</f>
         <v>2</v>
@@ -28706,15 +28495,6 @@
         <f>'00 Function Source'!P6</f>
         <v>NULL</v>
       </c>
-      <c r="J8" s="2">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="N8" s="11">
         <f>'00 Function Source'!H6</f>
         <v>4</v>
@@ -28745,15 +28525,6 @@
         <f>'00 Function Source'!P7</f>
         <v>NULL</v>
       </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="N9" s="11">
         <f>'00 Function Source'!H7</f>
         <v>5</v>
@@ -28784,15 +28555,6 @@
         <f>'00 Function Source'!P8</f>
         <v>NULL</v>
       </c>
-      <c r="J10" s="2">
-        <v>6</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="N10" s="11">
         <f>'00 Function Source'!H8</f>
         <v>6</v>
@@ -28823,15 +28585,6 @@
         <f>'00 Function Source'!P9</f>
         <v>NULL</v>
       </c>
-      <c r="J11" s="2">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="N11" s="11">
         <f>'00 Function Source'!H9</f>
         <v>7</v>
@@ -28862,15 +28615,6 @@
         <f>'00 Function Source'!P10</f>
         <v>NULL</v>
       </c>
-      <c r="J12" s="2">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="N12" s="11">
         <f>'00 Function Source'!H10</f>
         <v>8</v>
@@ -28901,15 +28645,6 @@
         <f>'00 Function Source'!P11</f>
         <v>NULL</v>
       </c>
-      <c r="J13" s="2">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="N13" s="11">
         <f>'00 Function Source'!H11</f>
         <v>9</v>
@@ -28940,15 +28675,6 @@
         <f>'00 Function Source'!P12</f>
         <v>NULL</v>
       </c>
-      <c r="J14" s="2">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="N14" s="11">
         <f>'00 Function Source'!H12</f>
         <v>10</v>
@@ -28979,15 +28705,6 @@
         <f>'00 Function Source'!P13</f>
         <v>NULL</v>
       </c>
-      <c r="J15" s="2">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="N15" s="11">
         <f>'00 Function Source'!H13</f>
         <v>11</v>
@@ -29018,15 +28735,6 @@
         <f>'00 Function Source'!P14</f>
         <v>NULL</v>
       </c>
-      <c r="J16" s="2">
-        <v>12</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="N16" s="11">
         <f>'00 Function Source'!H14</f>
         <v>12</v>
@@ -29057,15 +28765,6 @@
         <f>'00 Function Source'!P15</f>
         <v>NULL</v>
       </c>
-      <c r="J17" s="2">
-        <v>13</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="N17" s="11">
         <f>'00 Function Source'!H15</f>
         <v>13</v>
@@ -29096,15 +28795,6 @@
         <f>'00 Function Source'!P16</f>
         <v>NULL</v>
       </c>
-      <c r="J18" s="2">
-        <v>14</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="N18" s="11">
         <f>'00 Function Source'!H16</f>
         <v>14</v>
@@ -29135,15 +28825,6 @@
         <f>'00 Function Source'!P17</f>
         <v>NULL</v>
       </c>
-      <c r="J19" s="2">
-        <v>16</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="N19" s="11">
         <f>'00 Function Source'!H17</f>
         <v>16</v>
@@ -29174,15 +28855,6 @@
         <f>'00 Function Source'!P18</f>
         <v>NULL</v>
       </c>
-      <c r="J20" s="2">
-        <v>17</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="N20" s="11">
         <f>'00 Function Source'!H18</f>
         <v>17</v>
@@ -29212,15 +28884,6 @@
       <c r="D21" s="13" t="str">
         <f>'00 Function Source'!P19</f>
         <v>NULL</v>
-      </c>
-      <c r="J21" s="2">
-        <v>30</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="N21" s="11">
         <f>'00 Function Source'!H19</f>
@@ -35293,8 +34956,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35309,7 +34972,7 @@
     <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -35321,32 +34984,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="R1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="58"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -36098,13 +35761,13 @@
         <v>338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>3</v>
+        <v>337</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>404</v>
       </c>
       <c r="R13" s="11" t="str">
         <f>'00 Operation Source'!C11</f>
@@ -36162,14 +35825,8 @@
       <c r="M14" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>340</v>
+      <c r="O14" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="R14" s="11" t="str">
         <f>'00 Operation Source'!C12</f>
@@ -36228,13 +35885,13 @@
         <v>346</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>3</v>
+        <v>406</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="R15" s="11" t="str">
         <f>'00 Operation Source'!C13</f>
@@ -37073,13 +36730,13 @@
         <v>338</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>3</v>
+        <v>407</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>3</v>
+        <v>337</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>404</v>
       </c>
       <c r="R28" s="11" t="str">
         <f>'00 Operation Source'!C26</f>
@@ -37140,8 +36797,8 @@
       <c r="N29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>3</v>
@@ -41177,14 +40834,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  DeltaT End | Bergamo - 002: Volume at Start Boiling</v>
+        <v>-- Value: Massafra -  043: Volume at Start Boiling | Bergamo - 002: Volume at Start Boiling</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>DeltaT End</v>
+        <v>043: Volume at Start Boiling</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -41234,7 +40891,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871169SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -41244,20 +40901,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$3="NULL","",IF(ISBLANK('01 Value Comparison'!$L$3),"",'01 Value Comparison'!$L$3))</f>
-        <v>99RP276.536871169SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -  Alfa | Bergamo - 003: Volume at End casting</v>
+        <v>-- Value: Massafra -  044: Volume at End casting | Bergamo - 003: Volume at End casting</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v>Alfa</v>
+        <v>044: Volume at End casting</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -41307,7 +40964,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871170SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -41317,20 +40974,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$4="NULL","",IF(ISBLANK('01 Value Comparison'!$L$4),"",'01 Value Comparison'!$L$4))</f>
-        <v>99RP276.536871170SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -  PAAR channel number | Bergamo - 013: Extract loses</v>
+        <v>-- Value: Massafra -  045: Extract loses | Bergamo - 013: Extract loses</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v>PAAR channel number</v>
+        <v>045: Extract loses</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -41380,7 +41037,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871214SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -41390,20 +41047,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$5="NULL","",IF(ISBLANK('01 Value Comparison'!$L$5),"",'01 Value Comparison'!$L$5))</f>
-        <v>99RP276.536871214SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -  Hop Pellets Prerun quantiy of water | Bergamo - 014: °P measured at Boiling start</v>
+        <v>-- Value: Massafra -  046: °P measured at Boiling start | Bergamo - 014: °P measured at Boiling start</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v>Hop Pellets Prerun quantiy of water</v>
+        <v>046: °P measured at Boiling start</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -41453,7 +41110,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871433SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -41463,20 +41120,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$6="NULL","",IF(ISBLANK('01 Value Comparison'!$L$6),"",'01 Value Comparison'!$L$6))</f>
-        <v>99RP276.536871433SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -  Thermal energy | Bergamo - 019: Final extract</v>
+        <v>-- Value: Massafra -  047: Final extract | Bergamo - 019: Final extract</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v>Thermal energy</v>
+        <v>047: Final extract</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -41526,7 +41183,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871480SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -41536,20 +41193,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$7="NULL","",IF(ISBLANK('01 Value Comparison'!$L$7),"",'01 Value Comparison'!$L$7))</f>
-        <v>99RP276.536871480SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -  Raw material thrown | Bergamo - 020: Yield at end of Boiling</v>
+        <v>-- Value: Massafra -  048: Yield at end of Boiling | Bergamo - 020: Yield at end of Boiling</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v>Raw material thrown</v>
+        <v>048: Yield at end of Boiling</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -41599,7 +41256,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N'99RP276.536873716SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -41609,20 +41266,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$8="NULL","",IF(ISBLANK('01 Value Comparison'!$L$8),"",'01 Value Comparison'!$L$8))</f>
-        <v>99RP276.536873716SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -  Value38 | Bergamo - 038: Theoritical Energy setpoint</v>
+        <v>-- Value: Massafra -  049: Theoritical Energy setpoint | Bergamo - 038: Theoritical Energy setpoint</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v>Value38</v>
+        <v>049: Theoritical Energy setpoint</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>25</v>
@@ -41672,7 +41329,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N'99RP276.536873951SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -41682,20 +41339,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$9="NULL","",IF(ISBLANK('01 Value Comparison'!$L$9),"",'01 Value Comparison'!$L$9))</f>
-        <v>99RP276.536873951SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -  Less boil - Initial density | Bergamo - 040: Final orig Gravity mass per vol %</v>
+        <v>-- Value: Massafra -  050: Final orig Gravity mass per vol % | Bergamo - 040: Final orig Gravity mass per vol %</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v>Less boil - Initial density</v>
+        <v>050: Final orig Gravity mass per vol %</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>25</v>
@@ -41745,7 +41402,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N'99RP276.536874520SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -41755,20 +41412,20 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$10="NULL","",IF(ISBLANK('01 Value Comparison'!$L$10),"",'01 Value Comparison'!$L$10))</f>
-        <v>99RP276.536874520SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -  MPDS5 Product | Bergamo - 041: Malt Outtake Total Amount</v>
+        <v>-- Value: Massafra -  051: Malt Outtake Total Amount | Bergamo - 041: Malt Outtake Total Amount</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v>MPDS5 Product</v>
+        <v>051: Malt Outtake Total Amount</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>25</v>
@@ -41818,7 +41475,7 @@
     <row r="46" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="str">
         <f>CONCATENATE(D46,"N'",F46,"'")</f>
-        <v>WHERE _Name = N'99RP276.536874521SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="30"/>
@@ -41828,20 +41485,20 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$11="NULL","",IF(ISBLANK('01 Value Comparison'!$L$11),"",'01 Value Comparison'!$L$11))</f>
-        <v>99RP276.536874521SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 047: Volume cold wort</v>
+        <v>-- Value: Massafra -  057: Volume cold wort | Bergamo - 047: Volume cold wort</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>057: Volume cold wort</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>25</v>
@@ -41907,14 +41564,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 058: MES Avg temp inlet boiler</v>
+        <v>-- Value: Massafra -  058: MES Avg temp inlet boiler | Bergamo - 058: MES Avg temp inlet boiler</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>058: MES Avg temp inlet boiler</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -41980,14 +41637,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 059: MES Avg temp outlet boiler</v>
+        <v>-- Value: Massafra -  059: MES Avg temp outlet boiler | Bergamo - 059: MES Avg temp outlet boiler</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>059: MES Avg temp outlet boiler</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -42053,14 +41710,14 @@
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v>-- Value: Massafra -   | Bergamo - 060: Man. colour wort</v>
+        <v>-- Value: Massafra -  060: Man. colour wort | Bergamo - 060: Man. colour wort</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v/>
+        <v>060: Man. colour wort</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>25</v>
@@ -42126,14 +41783,14 @@
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v>-- Value: Massafra -   | Bergamo - 061: Man. pH Wort After Boiling (pH)</v>
+        <v>-- Value: Massafra -  061: Man. pH Wort After Boiling (pH) | Bergamo - 061: Man. pH Wort After Boiling (pH)</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v/>
+        <v>061: Man. pH Wort After Boiling (pH)</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>25</v>
@@ -42199,14 +41856,14 @@
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v xml:space="preserve">-- Value: Massafra -  DeltaT Start | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B72" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$17="NULL","",IF(ISBLANK('01 Value Comparison'!$K$17),"",'01 Value Comparison'!$K$17))</f>
-        <v>DeltaT Start</v>
+        <v/>
       </c>
       <c r="D72" s="25" t="s">
         <v>25</v>
@@ -42256,7 +41913,7 @@
     <row r="76" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="str">
         <f>CONCATENATE(D76,"N'",F76,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871168SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="30"/>
@@ -42266,20 +41923,20 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$17="NULL","",IF(ISBLANK('01 Value Comparison'!$L$17),"",'01 Value Comparison'!$L$17))</f>
-        <v>99RP276.536871168SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="str">
         <f>CONCATENATE(B77,C77,D77,E77)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Fan Start speed | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B77" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$18="NULL","",IF(ISBLANK('01 Value Comparison'!$K$18),"",'01 Value Comparison'!$K$18))</f>
-        <v>Fan Start speed</v>
+        <v/>
       </c>
       <c r="D77" s="25" t="s">
         <v>25</v>
@@ -42329,7 +41986,7 @@
     <row r="81" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="str">
         <f>CONCATENATE(D81,"N'",F81,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871171SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="30"/>
@@ -42339,20 +41996,20 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$18="NULL","",IF(ISBLANK('01 Value Comparison'!$L$18),"",'01 Value Comparison'!$L$18))</f>
-        <v>99RP276.536871171SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="str">
         <f>CONCATENATE(B82,C82,D82,E82)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Fan delta increase/decrease speed | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B82" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$19="NULL","",IF(ISBLANK('01 Value Comparison'!$K$19),"",'01 Value Comparison'!$K$19))</f>
-        <v>Fan delta increase/decrease speed</v>
+        <v/>
       </c>
       <c r="D82" s="25" t="s">
         <v>25</v>
@@ -42402,7 +42059,7 @@
     <row r="86" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="str">
         <f>CONCATENATE(D86,"N'",F86,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871172SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="30"/>
@@ -42412,20 +42069,20 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$19="NULL","",IF(ISBLANK('01 Value Comparison'!$L$19),"",'01 Value Comparison'!$L$19))</f>
-        <v>99RP276.536871172SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="str">
         <f>CONCATENATE(B87,C87,D87,E87)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Hop IKE | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B87" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$20="NULL","",IF(ISBLANK('01 Value Comparison'!$K$20),"",'01 Value Comparison'!$K$20))</f>
-        <v>Amount Hop IKE</v>
+        <v/>
       </c>
       <c r="D87" s="25" t="s">
         <v>25</v>
@@ -42475,7 +42132,7 @@
     <row r="91" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="str">
         <f>CONCATENATE(D91,"N'",F91,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871207SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="30"/>
@@ -42485,20 +42142,20 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$20="NULL","",IF(ISBLANK('01 Value Comparison'!$L$20),"",'01 Value Comparison'!$L$20))</f>
-        <v>99RP276.536871207SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="str">
         <f>CONCATENATE(B92,C92,D92,E92)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Hop Pellets Bitter | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B92" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$21="NULL","",IF(ISBLANK('01 Value Comparison'!$K$21),"",'01 Value Comparison'!$K$21))</f>
-        <v>Amount Hop Pellets Bitter</v>
+        <v/>
       </c>
       <c r="D92" s="25" t="s">
         <v>25</v>
@@ -42548,7 +42205,7 @@
     <row r="96" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="str">
         <f>CONCATENATE(D96,"N'",F96,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871208SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="30"/>
@@ -42558,20 +42215,20 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$21="NULL","",IF(ISBLANK('01 Value Comparison'!$L$21),"",'01 Value Comparison'!$L$21))</f>
-        <v>99RP276.536871208SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="str">
         <f>CONCATENATE(B97,C97,D97,E97)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Hop Pellets Aroma 1 | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B97" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$22="NULL","",IF(ISBLANK('01 Value Comparison'!$K$22),"",'01 Value Comparison'!$K$22))</f>
-        <v>Amount Hop Pellets Aroma 1</v>
+        <v/>
       </c>
       <c r="D97" s="25" t="s">
         <v>25</v>
@@ -42621,7 +42278,7 @@
     <row r="101" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="str">
         <f>CONCATENATE(D101,"N'",F101,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871209SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="30"/>
@@ -42631,20 +42288,20 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$22="NULL","",IF(ISBLANK('01 Value Comparison'!$L$22),"",'01 Value Comparison'!$L$22))</f>
-        <v>99RP276.536871209SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="str">
         <f>CONCATENATE(B102,C102,D102,E102)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Hop Pellets Aroma 2 | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B102" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$23="NULL","",IF(ISBLANK('01 Value Comparison'!$K$23),"",'01 Value Comparison'!$K$23))</f>
-        <v>Amount Hop Pellets Aroma 2</v>
+        <v/>
       </c>
       <c r="D102" s="25" t="s">
         <v>25</v>
@@ -42694,7 +42351,7 @@
     <row r="106" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="str">
         <f>CONCATENATE(D106,"N'",F106,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871210SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="30"/>
@@ -42704,20 +42361,20 @@
       <c r="E106" s="36"/>
       <c r="F106" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$23="NULL","",IF(ISBLANK('01 Value Comparison'!$L$23),"",'01 Value Comparison'!$L$23))</f>
-        <v>99RP276.536871210SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="str">
         <f>CONCATENATE(B107,C107,D107,E107)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Hop Extract | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B107" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$24="NULL","",IF(ISBLANK('01 Value Comparison'!$K$24),"",'01 Value Comparison'!$K$24))</f>
-        <v>Amount Hop Extract</v>
+        <v/>
       </c>
       <c r="D107" s="25" t="s">
         <v>25</v>
@@ -42767,7 +42424,7 @@
     <row r="111" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="41" t="str">
         <f>CONCATENATE(D111,"N'",F111,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871211SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="30"/>
@@ -42777,20 +42434,20 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$24="NULL","",IF(ISBLANK('01 Value Comparison'!$L$24),"",'01 Value Comparison'!$L$24))</f>
-        <v>99RP276.536871211SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="38" t="str">
         <f>CONCATENATE(B112,C112,D112,E112)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount CaCl2 | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B112" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C112" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$25="NULL","",IF(ISBLANK('01 Value Comparison'!$K$25),"",'01 Value Comparison'!$K$25))</f>
-        <v>Amount CaCl2</v>
+        <v/>
       </c>
       <c r="D112" s="25" t="s">
         <v>25</v>
@@ -42840,7 +42497,7 @@
     <row r="116" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="str">
         <f>CONCATENATE(D116,"N'",F116,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871212SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="30"/>
@@ -42850,20 +42507,20 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$25="NULL","",IF(ISBLANK('01 Value Comparison'!$L$25),"",'01 Value Comparison'!$L$25))</f>
-        <v>99RP276.536871212SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="38" t="str">
         <f>CONCATENATE(B117,C117,D117,E117)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Amount Water for a every kg Pellets | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B117" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C117" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$26="NULL","",IF(ISBLANK('01 Value Comparison'!$K$26),"",'01 Value Comparison'!$K$26))</f>
-        <v>Amount Water for a every kg Pellets</v>
+        <v/>
       </c>
       <c r="D117" s="25" t="s">
         <v>25</v>
@@ -42913,7 +42570,7 @@
     <row r="121" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="str">
         <f>CONCATENATE(D121,"N'",F121,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871213SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="30"/>
@@ -42923,20 +42580,20 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$26="NULL","",IF(ISBLANK('01 Value Comparison'!$L$26),"",'01 Value Comparison'!$L$26))</f>
-        <v>99RP276.536871213SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="38" t="str">
         <f>CONCATENATE(B122,C122,D122,E122)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Hop Pellets Postrun quantiy of water | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B122" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C122" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$27="NULL","",IF(ISBLANK('01 Value Comparison'!$K$27),"",'01 Value Comparison'!$K$27))</f>
-        <v>Hop Pellets Postrun quantiy of water</v>
+        <v/>
       </c>
       <c r="D122" s="25" t="s">
         <v>25</v>
@@ -42986,7 +42643,7 @@
     <row r="126" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="str">
         <f>CONCATENATE(D126,"N'",F126,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871434SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="30"/>
@@ -42996,20 +42653,20 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$27="NULL","",IF(ISBLANK('01 Value Comparison'!$L$27),"",'01 Value Comparison'!$L$27))</f>
-        <v>99RP276.536871434SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="str">
         <f>CONCATENATE(B127,C127,D127,E127)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Hop Extract Preheating quantity of water | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B127" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C127" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$28="NULL","",IF(ISBLANK('01 Value Comparison'!$K$28),"",'01 Value Comparison'!$K$28))</f>
-        <v>Hop Extract Preheating quantity of water</v>
+        <v/>
       </c>
       <c r="D127" s="25" t="s">
         <v>25</v>
@@ -43059,7 +42716,7 @@
     <row r="131" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="41" t="str">
         <f>CONCATENATE(D131,"N'",F131,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871454SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="30"/>
@@ -43069,20 +42726,20 @@
       <c r="E131" s="36"/>
       <c r="F131" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$28="NULL","",IF(ISBLANK('01 Value Comparison'!$L$28),"",'01 Value Comparison'!$L$28))</f>
-        <v>99RP276.536871454SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="str">
         <f>CONCATENATE(B132,C132,D132,E132)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Hop Extract Line volume | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B132" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C132" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$29="NULL","",IF(ISBLANK('01 Value Comparison'!$K$29),"",'01 Value Comparison'!$K$29))</f>
-        <v>Hop Extract Line volume</v>
+        <v/>
       </c>
       <c r="D132" s="25" t="s">
         <v>25</v>
@@ -43132,7 +42789,7 @@
     <row r="136" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="str">
         <f>CONCATENATE(D136,"N'",F136,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871455SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="30"/>
@@ -43142,20 +42799,20 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$29="NULL","",IF(ISBLANK('01 Value Comparison'!$L$29),"",'01 Value Comparison'!$L$29))</f>
-        <v>99RP276.536871455SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="str">
         <f>CONCATENATE(B137,C137,D137,E137)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Hop Extract Postrun quantity of water | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B137" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$30="NULL","",IF(ISBLANK('01 Value Comparison'!$K$30),"",'01 Value Comparison'!$K$30))</f>
-        <v>Hop Extract Postrun quantity of water</v>
+        <v/>
       </c>
       <c r="D137" s="25" t="s">
         <v>25</v>
@@ -43205,7 +42862,7 @@
     <row r="141" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="str">
         <f>CONCATENATE(D141,"N'",F141,"'")</f>
-        <v>WHERE _Name = N'99RP276.536871456SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="30"/>
@@ -43215,7 +42872,7 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$30="NULL","",IF(ISBLANK('01 Value Comparison'!$L$30),"",'01 Value Comparison'!$L$30))</f>
-        <v>99RP276.536871456SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
